--- a/biology/Botanique/Camassia/Camassia.xlsx
+++ b/biology/Botanique/Camassia/Camassia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camassia est un genre de 6 espèces de plantes herbacées à bulbe, originaires principalement de l'Ouest de l'Amérique du nord, du Sud de la Colombie-Britannique au Nord de la Californie. À l'Est, il atteint l'Utah, le Wyoming et le Montana. Anciennement placé dans les Liliaceae ou dans les Hyacinthaceae, les études génétiques et biochimiques permettent d'assigner ce genre à la famille des Agavaceae.
 Les différentes espèces sont appelées Camas, Quamash, Indian hyacinth, ou Wild hyacinth aux États-Unis.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Camassia angusta
 Camassia cusickii S.Watson, 1888.
@@ -547,7 +561,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Usage ornemental
 C'est une plante à bulbe de culture facile au jardin. Elles demande un sol riche en humus.
